--- a/results/R_gene_lists/d14_FRC_ova_GO.xlsx
+++ b/results/R_gene_lists/d14_FRC_ova_GO.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg" r:id="rId3" sheetId="1"/>
-    <sheet name="pos" r:id="rId4" sheetId="2"/>
+    <sheet name="low" r:id="rId3" sheetId="1"/>
+    <sheet name="high" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
